--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -619,7 +619,7 @@
     <t>https://www.arcgis.com/apps/dashboards/87fd6a0b569b430c9e4c6e7fa4fbd4c5#geoid=M010000US001</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/morpc-insights/altfuelstations/refs/heads/main/fact_sheets/altfuelstations.pdf</t>
+    <t>https://morpc1-my.sharepoint.com/:w:/g/personal/aporr_morpc_org/EVLU02aZ3JlPp4KkTWiDqTYBHuow3DjvxECK2rHyq0Am8w?e=giTobc</t>
   </si>
 </sst>
 </file>
